--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2032733.589981711</v>
+        <v>-2034731.262994556</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>367.7874161885831</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>211.7077521737263</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>79.6555938365986</v>
+        <v>81.71749581081122</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.58467420294774</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>134.6751203255735</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>172.2570984134033</v>
       </c>
       <c r="V5" t="n">
-        <v>142.8937582901807</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.68688488030515</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>140.1367789403456</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>275.1950371151411</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>118.8460297402134</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,13 +1181,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>127.990722067552</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>75.54202086597458</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>93.99419751563572</v>
       </c>
       <c r="U13" t="n">
-        <v>195.5559609429028</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>110.7079863900201</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>101.4572461144765</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>51.51072525725455</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>35.95968330779881</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>125.3064083316244</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522967</v>
+        <v>111.700090052297</v>
       </c>
       <c r="C25" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2533,16 +2533,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069496</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789328978</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
-        <v>129.788919853962</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287491</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463136</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1956.425698662112</v>
+        <v>1566.447195791145</v>
       </c>
       <c r="C2" t="n">
-        <v>1587.463181721701</v>
+        <v>1197.484678850734</v>
       </c>
       <c r="D2" t="n">
-        <v>1229.19748311495</v>
+        <v>839.2189802439832</v>
       </c>
       <c r="E2" t="n">
-        <v>843.409230516706</v>
+        <v>839.2189802439832</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>839.2189802439832</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>421.2551721421701</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="X2" t="n">
-        <v>2343.025538726234</v>
+        <v>1953.047035855267</v>
       </c>
       <c r="Y2" t="n">
-        <v>2343.025538726234</v>
+        <v>1953.047035855267</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.6765899837193</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C4" t="n">
-        <v>562.6765899837193</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D4" t="n">
-        <v>562.6765899837193</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E4" t="n">
-        <v>562.6765899837193</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
         <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>683.0939597590123</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>683.0939597590123</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>683.0939597590123</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>683.0939597590123</v>
       </c>
       <c r="W4" t="n">
-        <v>562.6765899837193</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X4" t="n">
-        <v>562.6765899837193</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.6765899837193</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2304.517354885837</v>
       </c>
       <c r="V5" t="n">
-        <v>2067.843998914936</v>
+        <v>2304.517354885837</v>
       </c>
       <c r="W5" t="n">
-        <v>1715.075343644822</v>
+        <v>1951.748699615723</v>
       </c>
       <c r="X5" t="n">
-        <v>1715.075343644822</v>
+        <v>1951.748699615723</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.075343644822</v>
+        <v>1561.609367639912</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.9282174162495</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>404.9282174162495</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>404.9282174162495</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162495</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>377.4807191145269</v>
       </c>
       <c r="H7" t="n">
         <v>235.9284171545819</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>506.2526476006764</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>327.455452512359</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8558756644252</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644252</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>598.8454265624425</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>598.8454265624425</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>598.8454265624425</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W10" t="n">
-        <v>598.8454265624425</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X10" t="n">
-        <v>370.8558756644252</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.8558756644252</v>
+        <v>437.5354894428046</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1403.972636703725</v>
       </c>
       <c r="U13" t="n">
-        <v>1301.384996878203</v>
+        <v>1403.972636703725</v>
       </c>
       <c r="V13" t="n">
-        <v>1046.700508672316</v>
+        <v>1149.288148497838</v>
       </c>
       <c r="W13" t="n">
-        <v>1046.700508672316</v>
+        <v>859.8709784608774</v>
       </c>
       <c r="X13" t="n">
-        <v>818.7109577742983</v>
+        <v>859.8709784608774</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>859.8709784608774</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>745.6707680030239</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.2714843595161</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3353014316092</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D16" t="n">
-        <v>377.2186620192734</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>237.776412546148</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>237.776412546148</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.712528333286</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.712528333286</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.9199491897558</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>816.3222213695503</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C19" t="n">
-        <v>816.3222213695503</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D19" t="n">
-        <v>666.2055819572146</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>518.2924883748215</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>518.2924883748215</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>350.117166694642</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>199.6991582425853</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1112.024716295845</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>1112.024716295845</v>
       </c>
       <c r="W19" t="n">
-        <v>1044.311772267568</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="X19" t="n">
-        <v>816.3222213695503</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.3222213695503</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5835,22 +5835,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.9645427683688</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>355.6416303362488</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362488</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362488</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5941,19 +5941,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V22" t="n">
-        <v>909.3712637033467</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W22" t="n">
-        <v>619.9540936663861</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X22" t="n">
-        <v>391.9645427683688</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.9645427683688</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -5996,22 +5996,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>570.0299571250974</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>816.7950850315615</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1124.115218311523</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975556</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G25" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>177.05035515254</v>
@@ -6151,7 +6151,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,7 +6166,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,40 +6215,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6421,13 +6421,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6458,7 +6458,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
@@ -6470,28 +6470,28 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,31 +6640,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,25 +6935,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7108,22 +7108,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,52 +7567,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525409</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254966</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.84894686497</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,49 +7807,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254949</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649684</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>87.16935584025435</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>159.0121003135246</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>290.0755068418704</v>
+        <v>288.0136048676578</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>151.8478780110175</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>127.5533635427535</v>
       </c>
       <c r="U13" t="n">
-        <v>90.68139145567457</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>35.72597625654906</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27.33984058837402</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>8.961999349795519</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>234.7266271413228</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>131.287137790829</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>160.9309440669529</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36783.84869564045</v>
+        <v>36783.84869564044</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377086</v>
       </c>
       <c r="F2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="G2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.9059737709</v>
       </c>
       <c r="H2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321423</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321423</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321424</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>54505.51210371254</v>
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37464.45686275964</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="K4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="L4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.4568627596</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.4568627596</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744094.6518918383</v>
+        <v>-744308.0638817169</v>
       </c>
       <c r="C6" t="n">
         <v>-198581.9478214179</v>
@@ -26528,16 +26528,16 @@
         <v>-198581.9478214179</v>
       </c>
       <c r="E6" t="n">
-        <v>-593090.1260732808</v>
+        <v>-593187.5851992529</v>
       </c>
       <c r="F6" t="n">
-        <v>-67930.08959638485</v>
+        <v>-68027.54872235701</v>
       </c>
       <c r="G6" t="n">
-        <v>-67930.08959638489</v>
+        <v>-68027.54872235698</v>
       </c>
       <c r="H6" t="n">
-        <v>-67930.08959638485</v>
+        <v>-68027.54872235701</v>
       </c>
       <c r="I6" t="n">
         <v>-148632.9862932833</v>
@@ -26546,22 +26546,22 @@
         <v>-270550.6933821637</v>
       </c>
       <c r="K6" t="n">
-        <v>-94127.4741895707</v>
+        <v>-94127.47418957086</v>
       </c>
       <c r="L6" t="n">
         <v>-94127.47418957078</v>
       </c>
       <c r="M6" t="n">
-        <v>-228928.489423408</v>
+        <v>-228928.4894234079</v>
       </c>
       <c r="N6" t="n">
         <v>-148632.9862932833</v>
       </c>
       <c r="O6" t="n">
-        <v>-94127.47418957076</v>
+        <v>-94127.47418957077</v>
       </c>
       <c r="P6" t="n">
-        <v>-94127.4741895708</v>
+        <v>-94127.47418957078</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26747,7 +26747,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.08862955312838</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>112.2150205906308</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>167.5608647470712</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>78.96706909488603</v>
       </c>
       <c r="V5" t="n">
-        <v>184.8585001799542</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.1450953016322</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>16.0341099014496</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>106.7353329571206</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>205.0767430241438</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>97.04438339053229</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>143.0426324861202</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>336.4270607962786</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>309.5875389014639</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>618.2977090519464</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
